--- a/results/mp/logistic/corona/confidence/42/desired-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/desired-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,238 +40,283 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>death</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>die</t>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>pressure</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>relief</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>wish</t>
   </si>
   <si>
-    <t>save</t>
+    <t>help</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>ready</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>super</t>
   </si>
   <si>
-    <t>god</t>
-  </si>
-  <si>
     <t>growth</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
-    <t>the</t>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -629,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,10 +682,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -698,13 +743,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8666666666666667</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -716,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -748,13 +793,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8527397260273972</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>249</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>249</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -766,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.95</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -790,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -798,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8108108108108109</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -816,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -840,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -848,13 +893,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.8321917808219178</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -866,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9375</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -890,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -898,13 +943,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -916,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -948,13 +993,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7666666666666667</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -966,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.9375</v>
+        <v>0.9242819843342036</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>354</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>354</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -990,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -998,13 +1043,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7631578947368421</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1016,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.9333333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1040,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1048,13 +1093,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6896551724137931</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1066,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1090,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1098,13 +1143,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.68</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1116,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1148,13 +1193,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6521739130434783</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1166,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K12">
         <v>0.9090909090909091</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1190,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1198,13 +1243,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6470588235294118</v>
+        <v>0.7</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1216,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.9007832898172323</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L13">
-        <v>345</v>
+        <v>39</v>
       </c>
       <c r="M13">
-        <v>345</v>
+        <v>39</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1240,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1248,13 +1293,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6153846153846154</v>
+        <v>0.68</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1266,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>0.8947368421052632</v>
@@ -1319,16 +1364,16 @@
         <v>80</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15">
+        <v>0.8936170212765957</v>
+      </c>
+      <c r="L15">
         <v>42</v>
       </c>
-      <c r="K15">
-        <v>0.8943661971830986</v>
-      </c>
-      <c r="L15">
-        <v>127</v>
-      </c>
       <c r="M15">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1340,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1348,13 +1393,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5555555555555556</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1366,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K16">
         <v>0.8928571428571429</v>
@@ -1398,13 +1443,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4705882352941176</v>
+        <v>0.4767441860465116</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>246</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>246</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1416,19 +1461,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>27</v>
+        <v>270</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.8837209302325582</v>
+        <v>0.890625</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1440,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1448,13 +1493,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4341085271317829</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C18">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1466,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L18">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1490,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1498,13 +1543,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3090909090909091</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1516,19 +1561,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.8679245283018868</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L19">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="M19">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1540,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1548,13 +1593,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3066666666666666</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1566,19 +1611,19 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>109</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="K20">
-        <v>0.8625</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L20">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="M20">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1590,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1598,13 +1643,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3050847457627119</v>
+        <v>0.25</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1616,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>0.8611111111111112</v>
+        <v>0.875</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1640,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1648,13 +1693,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2013422818791946</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1666,19 +1711,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.8536585365853658</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L22">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M22">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1690,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1698,37 +1743,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1527777777777778</v>
+        <v>0.175</v>
       </c>
       <c r="C23">
+        <v>63</v>
+      </c>
+      <c r="D23">
+        <v>63</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>297</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D23">
-        <v>55</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>305</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="L23">
         <v>50</v>
       </c>
-      <c r="K23">
-        <v>0.8448275862068966</v>
-      </c>
-      <c r="L23">
-        <v>49</v>
-      </c>
       <c r="M23">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1740,21 +1785,45 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.07539682539682539</v>
+      </c>
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>233</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.8297872340425532</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1766,73 +1835,145 @@
         <v>0</v>
       </c>
       <c r="Q24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.006073752711496746</v>
+      </c>
+      <c r="C25">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>0.22</v>
+      </c>
+      <c r="F25">
+        <v>0.78</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>2291</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25">
+        <v>0.84</v>
+      </c>
+      <c r="L25">
+        <v>42</v>
+      </c>
+      <c r="M25">
+        <v>42</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25">
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.005475040257648953</v>
+      </c>
+      <c r="C26">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>0.11</v>
+      </c>
+      <c r="F26">
+        <v>0.89</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>3088</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26">
         <v>0.8214285714285714</v>
       </c>
-      <c r="L25">
+      <c r="L26">
         <v>23</v>
       </c>
-      <c r="M25">
+      <c r="M26">
         <v>23</v>
       </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26">
-        <v>0.8205128205128205</v>
-      </c>
-      <c r="L26">
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M26">
-        <v>32</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="B27">
+        <v>0.005009392611145898</v>
+      </c>
+      <c r="C27">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>0.3</v>
+      </c>
+      <c r="F27">
+        <v>0.7</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>3178</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K27">
-        <v>0.8148148148148148</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1844,21 +1985,45 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.003301611963488056</v>
+      </c>
+      <c r="C28">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>33</v>
+      </c>
+      <c r="E28">
+        <v>0.48</v>
+      </c>
+      <c r="F28">
+        <v>0.52</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>5132</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K28">
-        <v>0.8</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L28">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1875,16 +2040,16 @@
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K29">
-        <v>0.7936507936507936</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L29">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1896,21 +2061,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K30">
-        <v>0.7916666666666666</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1922,21 +2087,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K31">
-        <v>0.7916666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1948,21 +2113,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K32">
-        <v>0.7894736842105263</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1974,21 +2139,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K33">
-        <v>0.7714285714285715</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2000,21 +2165,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K34">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L34">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2026,21 +2191,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K35">
-        <v>0.75</v>
+        <v>0.7322033898305085</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2052,21 +2217,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K36">
-        <v>0.7142857142857143</v>
+        <v>0.7294117647058823</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2078,21 +2243,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>8</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K37">
-        <v>0.7037037037037037</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2104,21 +2269,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K38">
-        <v>0.694560669456067</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L38">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M38">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2130,21 +2295,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K39">
-        <v>0.6914893617021277</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L39">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2156,21 +2321,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K40">
-        <v>0.6818181818181818</v>
+        <v>0.7</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2182,21 +2347,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K41">
-        <v>0.6813559322033899</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L41">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2208,21 +2373,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K42">
-        <v>0.6666666666666666</v>
+        <v>0.675</v>
       </c>
       <c r="L42">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2234,21 +2399,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K43">
-        <v>0.651685393258427</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L43">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M43">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2260,21 +2425,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K44">
-        <v>0.6461538461538462</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L44">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2286,21 +2451,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K45">
-        <v>0.6060606060606061</v>
+        <v>0.6404494382022472</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2312,21 +2477,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K46">
-        <v>0.5769230769230769</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2338,21 +2503,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K47">
-        <v>0.5571428571428572</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L47">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M47">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2364,21 +2529,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K48">
-        <v>0.5416666666666666</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2390,21 +2555,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K49">
-        <v>0.5416666666666666</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2416,21 +2581,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K50">
-        <v>0.5</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2442,21 +2607,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K51">
-        <v>0.4901960784313725</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L51">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2468,21 +2633,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K52">
-        <v>0.4838709677419355</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2494,21 +2659,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K53">
-        <v>0.4761904761904762</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L53">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M53">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2520,21 +2685,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K54">
-        <v>0.4743589743589743</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L54">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M54">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2546,21 +2711,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K55">
-        <v>0.4</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L55">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="M55">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2572,21 +2737,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K56">
-        <v>0.3287671232876712</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L56">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2598,21 +2763,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K57">
-        <v>0.3050847457627119</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L57">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M57">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2624,33 +2789,319 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K58">
-        <v>0.002522312766783081</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L58">
+        <v>14</v>
+      </c>
+      <c r="M58">
+        <v>14</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K59">
+        <v>0.3777777777777778</v>
+      </c>
+      <c r="L59">
+        <v>17</v>
+      </c>
+      <c r="M59">
+        <v>17</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K60">
+        <v>0.3508771929824561</v>
+      </c>
+      <c r="L60">
+        <v>20</v>
+      </c>
+      <c r="M60">
+        <v>20</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K61">
+        <v>0.28125</v>
+      </c>
+      <c r="L61">
+        <v>18</v>
+      </c>
+      <c r="M61">
+        <v>18</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K62">
+        <v>0.2203389830508475</v>
+      </c>
+      <c r="L62">
         <v>13</v>
       </c>
-      <c r="M58">
-        <v>24</v>
-      </c>
-      <c r="N58">
-        <v>0.54</v>
-      </c>
-      <c r="O58">
-        <v>0.46</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>5141</v>
+      <c r="M62">
+        <v>13</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K63">
+        <v>0.02925045703839122</v>
+      </c>
+      <c r="L63">
+        <v>16</v>
+      </c>
+      <c r="M63">
+        <v>16</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K64">
+        <v>0.01166666666666667</v>
+      </c>
+      <c r="L64">
+        <v>14</v>
+      </c>
+      <c r="M64">
+        <v>14</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K65">
+        <v>0.008793969849246231</v>
+      </c>
+      <c r="L65">
+        <v>14</v>
+      </c>
+      <c r="M65">
+        <v>16</v>
+      </c>
+      <c r="N65">
+        <v>0.88</v>
+      </c>
+      <c r="O65">
+        <v>0.12</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K66">
+        <v>0.004868913857677903</v>
+      </c>
+      <c r="L66">
+        <v>13</v>
+      </c>
+      <c r="M66">
+        <v>16</v>
+      </c>
+      <c r="N66">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O66">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K67">
+        <v>0.003108003108003108</v>
+      </c>
+      <c r="L67">
+        <v>16</v>
+      </c>
+      <c r="M67">
+        <v>33</v>
+      </c>
+      <c r="N67">
+        <v>0.48</v>
+      </c>
+      <c r="O67">
+        <v>0.52</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>5132</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K68">
+        <v>0.003009259259259259</v>
+      </c>
+      <c r="L68">
+        <v>13</v>
+      </c>
+      <c r="M68">
+        <v>21</v>
+      </c>
+      <c r="N68">
+        <v>0.62</v>
+      </c>
+      <c r="O68">
+        <v>0.38</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K69">
+        <v>0.002606777621816723</v>
+      </c>
+      <c r="L69">
+        <v>13</v>
+      </c>
+      <c r="M69">
+        <v>22</v>
+      </c>
+      <c r="N69">
+        <v>0.59</v>
+      </c>
+      <c r="O69">
+        <v>0.41</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>4974</v>
       </c>
     </row>
   </sheetData>
